--- a/WPP/NominaDocs/Prueba.xlsx
+++ b/WPP/NominaDocs/Prueba.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="3" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Lunes" sheetId="1" r:id="rId1"/>
-    <sheet name="Martes" sheetId="2" r:id="rId2"/>
-    <sheet name="Miercoles" sheetId="3" r:id="rId3"/>
-    <sheet name="Jueves" sheetId="4" r:id="rId4"/>
-    <sheet name="Viernes" sheetId="5" r:id="rId5"/>
-    <sheet name="Sabado" sheetId="6" r:id="rId6"/>
+    <sheet name="Lunes" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Martes" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Miercoles" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Jueves" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Viernes" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Sabado" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="171026" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -76,12 +77,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -128,12 +129,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -180,12 +181,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -213,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -232,12 +233,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -251,7 +252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -265,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -284,12 +285,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -303,7 +304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -317,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +337,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="41">
   <si>
     <t>Codigo</t>
   </si>
@@ -356,12 +357,12 @@
     <t>Juan Lopez Rojas</t>
   </si>
   <si>
+    <t>01-05-2016</t>
+  </si>
+  <si>
     <t>Fernando Calvo Salazar</t>
   </si>
   <si>
-    <t>05/01/2016</t>
-  </si>
-  <si>
     <t>04:01</t>
   </si>
   <si>
@@ -389,10 +390,7 @@
     <t>Rafael Herrera Picado</t>
   </si>
   <si>
-    <t>22/01/2016</t>
-  </si>
-  <si>
-    <t>21/01/2016</t>
+    <t>21-01-2016</t>
   </si>
   <si>
     <t>04:19</t>
@@ -410,7 +408,7 @@
     <t>12:28</t>
   </si>
   <si>
-    <t>27/01/2016</t>
+    <t>27-01-2016</t>
   </si>
   <si>
     <t>04:07</t>
@@ -441,13 +439,39 @@
   </si>
   <si>
     <t>14:46</t>
+  </si>
+  <si>
+    <t>05-01-2016</t>
+  </si>
+  <si>
+    <t>22-01-2016</t>
+  </si>
+  <si>
+    <t>04:04</t>
+  </si>
+  <si>
+    <t>13:49</t>
+  </si>
+  <si>
+    <t>03:35</t>
+  </si>
+  <si>
+    <t>15:43</t>
+  </si>
+  <si>
+    <t>16:05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
+    <numFmt numFmtId="166" formatCode="@"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -456,7 +480,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -467,11 +506,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -489,7 +523,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -497,32 +531,81 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -581,346 +664,37 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.28515625"/>
-    <col min="2" max="2" width="29.140625"/>
-    <col min="3" max="3" width="10.42578125" style="8"/>
-    <col min="4" max="1025" width="10.42578125"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.1224489795918"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.65">
+    <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -930,121 +704,138 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="26.85">
-      <c r="A2" s="2">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="38.85">
-      <c r="A3" s="2">
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
         <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="26.85">
-      <c r="A4" s="2">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
         <v>40</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="38.85">
-      <c r="A5" s="2">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
         <v>60</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="38.85">
-      <c r="A6" s="2">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
         <v>70</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="38.85">
-      <c r="A7">
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
         <v>90</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75"/>
-    <row r="9" spans="1:5" ht="15.75"/>
-    <row r="10" spans="1:5" ht="15.75"/>
-    <row r="11" spans="1:5" ht="15.75"/>
-    <row r="12" spans="1:5" ht="15.75"/>
-    <row r="13" spans="1:5" ht="15.75"/>
-    <row r="14" spans="1:5" ht="15.75"/>
-    <row r="15" spans="1:5" ht="15.75"/>
-    <row r="16" spans="1:5" ht="15.75"/>
-    <row r="17" ht="15.75"/>
-    <row r="18" ht="15.75"/>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.28515625"/>
-    <col min="2" max="2" width="29.140625"/>
-    <col min="3" max="1025" width="10.42578125"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.1224489795918"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1061,113 +852,127 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
         <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
         <v>40</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
         <v>60</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
         <v>70</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
         <v>90</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.28515625"/>
-    <col min="2" max="2" width="29.140625"/>
-    <col min="3" max="1025" width="10.42578125"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.1224489795918"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1184,113 +989,127 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75">
-      <c r="A2" s="2">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75">
-      <c r="A3" s="2">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
         <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75">
-      <c r="A4" s="2">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
         <v>40</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75">
-      <c r="A5" s="2">
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
         <v>60</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75">
-      <c r="A6" s="2">
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
         <v>70</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75">
-      <c r="A7">
+      <c r="E6" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
         <v>90</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>23</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.28515625"/>
-    <col min="2" max="2" width="29.140625"/>
-    <col min="3" max="1025" width="10.42578125"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.1224489795918"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1307,131 +1126,139 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75">
-      <c r="A2" s="2">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="6" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75">
-      <c r="A3" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75">
-      <c r="A4" s="2">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
         <v>40</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75">
-      <c r="A5" s="2">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
         <v>60</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75">
-      <c r="A6" s="2">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
         <v>70</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75">
-      <c r="A7">
+      <c r="E6" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
         <v>90</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>34</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.28515625"/>
-    <col min="2" max="2" width="29.140625"/>
-    <col min="3" max="1025" width="10.42578125"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.1224489795918"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1448,73 +1275,127 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="15">
-      <c r="B7" s="3"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="C8" s="8"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.28515625"/>
-    <col min="2" max="2" width="29.140625"/>
-    <col min="3" max="1025" width="10.42578125"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.1224489795918"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1531,74 +1412,104 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="15">
-      <c r="B7" s="3"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="C15" s="8"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>